--- a/标签推荐模版.xlsx
+++ b/标签推荐模版.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuzhoufeng/OneDrive/PDP/testfile/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0464B0F-BA2D-F841-A9BF-5FE5B94720ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="表格样式1" sheetId="4" r:id="rId1"/>
@@ -24,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="168">
   <si>
     <t>标签复份</t>
   </si>
@@ -78,6 +72,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>省</t>
     </r>
     <r>
@@ -85,6 +85,7 @@
         <b/>
         <sz val="10.5"/>
         <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -100,6 +101,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>州</t>
     </r>
     <r>
@@ -108,6 +116,7 @@
         <sz val="10.5"/>
         <color rgb="FF7030A0"/>
         <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -207,103 +216,112 @@
     <t>徐洲锋</t>
   </si>
   <si>
+    <t>刘恩德，方伟，魏志丹，上官法智，徐洲锋，方伟，王欣宇，王立松，张三，李四</t>
+  </si>
+  <si>
+    <t>LED4656</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>云南省</t>
+  </si>
+  <si>
+    <t>昆明市</t>
+  </si>
+  <si>
+    <t>盘龙区</t>
+  </si>
+  <si>
+    <t>昆明植物园</t>
+  </si>
+  <si>
+    <t>人工林下</t>
+  </si>
+  <si>
+    <t>灌木</t>
+  </si>
+  <si>
+    <t>红色</t>
+  </si>
+  <si>
+    <t>1.2 m</t>
+  </si>
+  <si>
+    <t>马缨花</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>Rhododendron delavayi var. delavayi Franch.</t>
+  </si>
+  <si>
+    <t>Xu Zhoufeng</t>
+  </si>
+  <si>
+    <t>Liu Ende,Fangwei, Wei Zhidan, Shangguan Fazhi</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Yunnan</t>
+  </si>
+  <si>
+    <t>KUnming</t>
+  </si>
+  <si>
+    <t>Panlong</t>
+  </si>
+  <si>
+    <t>Kunming Botany Garden</t>
+  </si>
+  <si>
+    <t>under forest</t>
+  </si>
+  <si>
+    <t>shrub</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>Ma Ying Hua</t>
+  </si>
+  <si>
+    <t>属</t>
+  </si>
+  <si>
+    <t>种加词</t>
+  </si>
+  <si>
+    <t>种命名人</t>
+  </si>
+  <si>
+    <t>种下等级</t>
+  </si>
+  <si>
+    <t>种下加词</t>
+  </si>
+  <si>
+    <t>种下命名人</t>
+  </si>
+  <si>
+    <t>Rhododendron</t>
+  </si>
+  <si>
+    <t>delavayi</t>
+  </si>
+  <si>
+    <t>Franch.</t>
+  </si>
+  <si>
     <t>刘恩德，方伟，魏志丹，上官法智</t>
   </si>
   <si>
-    <t>LED4656</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>云南省</t>
-  </si>
-  <si>
-    <t>昆明市</t>
-  </si>
-  <si>
-    <t>盘龙区</t>
-  </si>
-  <si>
-    <t>昆明植物园</t>
-  </si>
-  <si>
-    <t>人工林下</t>
-  </si>
-  <si>
-    <t>灌木</t>
-  </si>
-  <si>
-    <t>红色</t>
-  </si>
-  <si>
-    <t>1.2 m</t>
-  </si>
-  <si>
-    <t>马缨花</t>
-  </si>
-  <si>
-    <t>DNA</t>
-  </si>
-  <si>
-    <t>Xu Zhoufeng</t>
-  </si>
-  <si>
-    <t>Liu Ende,Fangwei, Wei Zhidan, Shangguan Fazhi</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Yunnan</t>
-  </si>
-  <si>
-    <t>KUnming</t>
-  </si>
-  <si>
-    <t>Panlong</t>
-  </si>
-  <si>
-    <t>Kunming Botany Garden</t>
-  </si>
-  <si>
-    <t>under forest</t>
-  </si>
-  <si>
-    <t>shrub</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>Ma Ying Hua</t>
-  </si>
-  <si>
-    <t>属</t>
-  </si>
-  <si>
-    <t>种加词</t>
-  </si>
-  <si>
-    <t>种命名人</t>
-  </si>
-  <si>
-    <t>种下等级</t>
-  </si>
-  <si>
-    <t>种下加词</t>
-  </si>
-  <si>
-    <t>种下命名人</t>
-  </si>
-  <si>
-    <t>Rhododendron</t>
-  </si>
-  <si>
-    <t>delavayi</t>
-  </si>
-  <si>
-    <t>Franch.</t>
+    <t>var.</t>
   </si>
   <si>
     <t>duplicatesOfLabel</t>
@@ -559,41 +577,19 @@
   </si>
   <si>
     <t>*注：黑色字体的字段是建议存在的字段，紫色字体的字段是可以缺失的字段。</t>
-  </si>
-  <si>
-    <t>var.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>delavayi</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Franch.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rhododendron delavayi var. delavayi Franch.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>var.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>delavayi</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>Franch.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,12 +642,13 @@
       <b/>
       <sz val="10.5"/>
       <name val="Consolas"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF7030A0"/>
       <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -661,17 +658,20 @@
     <font>
       <sz val="14"/>
       <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF00B050"/>
       <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10.5"/>
       <color rgb="FFD4D4D4"/>
       <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -684,12 +684,21 @@
     <font>
       <sz val="10.5"/>
       <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10.5"/>
       <color rgb="FF7030A0"/>
       <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -713,12 +722,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.5"/>
-      <name val="Consolas"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -727,27 +755,318 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -852,13 +1171,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,6 +1507,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -964,45 +1528,74 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1289,151 +1882,151 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AN3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="33.1666666666667" customWidth="1"/>
     <col min="9" max="9" width="11.5"/>
     <col min="11" max="12" width="11.5"/>
-    <col min="16" max="16" width="10.33203125"/>
-    <col min="18" max="18" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.3333333333333"/>
+    <col min="18" max="18" width="10.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="30" customFormat="1" ht="16">
-      <c r="A1" s="35" t="s">
+    <row r="1" s="31" customFormat="1" ht="14.25" spans="1:40">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="V1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="W1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="35" t="s">
+      <c r="X1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="35" t="s">
+      <c r="Y1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="35" t="s">
+      <c r="Z1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="35" t="s">
+      <c r="AA1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="35" t="s">
+      <c r="AB1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="35" t="s">
+      <c r="AC1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="35" t="s">
+      <c r="AD1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="35" t="s">
+      <c r="AE1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="35" t="s">
+      <c r="AF1" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="35" t="s">
+      <c r="AG1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="35" t="s">
+      <c r="AH1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="35" t="s">
+      <c r="AI1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="35" t="s">
+      <c r="AJ1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="35" t="s">
+      <c r="AK1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="35" t="s">
+      <c r="AL1" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="35" t="s">
+      <c r="AM1" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="35" t="s">
+      <c r="AN1" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:36">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1458,7 +2051,7 @@
       <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="35">
         <v>44196</v>
       </c>
       <c r="J2" t="s">
@@ -1479,7 +2072,7 @@
       <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="34">
+      <c r="P2" s="35">
         <v>43977</v>
       </c>
       <c r="Q2" t="s">
@@ -1516,7 +2109,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:36">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1535,17 +2128,17 @@
       <c r="F3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="43" t="s">
-        <v>168</v>
+      <c r="G3" s="36" t="s">
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="34">
+        <v>61</v>
+      </c>
+      <c r="I3" s="35">
         <v>44196</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K3">
         <v>25.3697889</v>
@@ -1562,204 +2155,205 @@
       <c r="O3" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="34">
+      <c r="P3" s="35">
         <v>43977</v>
       </c>
       <c r="Q3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W3">
         <v>10</v>
       </c>
       <c r="X3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH3" t="s">
         <v>57</v>
       </c>
       <c r="AJ3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AS3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="11.3333333333333" customWidth="1"/>
     <col min="14" max="14" width="11.5"/>
     <col min="16" max="17" width="11.5"/>
-    <col min="21" max="21" width="10.33203125"/>
+    <col min="21" max="21" width="10.3333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="30" customFormat="1" ht="31">
-      <c r="A1" s="35" t="s">
+    <row r="1" s="31" customFormat="1" ht="27" spans="1:45">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="37" t="s">
+      <c r="G1" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="H1" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="I1" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="J1" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="K1" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="L1" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="W1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="35" t="s">
+      <c r="X1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="35" t="s">
+      <c r="Y1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="35" t="s">
+      <c r="Z1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="35" t="s">
+      <c r="AA1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="35" t="s">
+      <c r="AB1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="35" t="s">
+      <c r="AC1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="35" t="s">
+      <c r="AD1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="35" t="s">
+      <c r="AE1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="35" t="s">
+      <c r="AF1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="35" t="s">
+      <c r="AG1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="35" t="s">
+      <c r="AH1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="35" t="s">
+      <c r="AI1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="35" t="s">
+      <c r="AJ1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" s="35" t="s">
+      <c r="AK1" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="35" t="s">
+      <c r="AL1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" s="35" t="s">
+      <c r="AM1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" s="35" t="s">
+      <c r="AN1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="35" t="s">
+      <c r="AO1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" s="35" t="s">
+      <c r="AP1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="35" t="s">
+      <c r="AQ1" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="35" t="s">
+      <c r="AR1" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" s="35" t="s">
+      <c r="AS1" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:41">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1779,22 +2373,22 @@
         <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="34">
+      <c r="N2" s="35">
         <v>44196</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="P2">
         <v>25.3697889</v>
@@ -1811,7 +2405,7 @@
       <c r="T2" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="34">
+      <c r="U2" s="35">
         <v>43977</v>
       </c>
       <c r="V2" t="s">
@@ -1848,7 +2442,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:41">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1868,31 +2462,31 @@
         <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>171</v>
+      <c r="L3" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3" s="34">
+        <v>61</v>
+      </c>
+      <c r="N3" s="35">
         <v>44196</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P3">
         <v>25.3697889</v>
@@ -1909,207 +2503,208 @@
       <c r="T3" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="34">
+      <c r="U3" s="35">
         <v>43977</v>
       </c>
       <c r="V3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB3">
         <v>10</v>
       </c>
       <c r="AC3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AM3" t="s">
         <v>57</v>
       </c>
       <c r="AO3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AN3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.1666666666667" customWidth="1"/>
+    <col min="6" max="6" width="15.1666666666667" customWidth="1"/>
+    <col min="7" max="7" width="16.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="12.6666666666667" customWidth="1"/>
     <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" customWidth="1"/>
-    <col min="11" max="11" width="16.1640625" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="25.83203125" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="23" max="23" width="15.83203125" customWidth="1"/>
-    <col min="32" max="32" width="10.1640625" customWidth="1"/>
-    <col min="35" max="35" width="26.33203125" customWidth="1"/>
-    <col min="36" max="36" width="12.1640625" customWidth="1"/>
-    <col min="37" max="37" width="25.1640625" customWidth="1"/>
-    <col min="38" max="38" width="19.33203125" customWidth="1"/>
-    <col min="39" max="39" width="22.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.1666666666667" customWidth="1"/>
+    <col min="11" max="11" width="16.1666666666667" customWidth="1"/>
+    <col min="12" max="12" width="17.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="25.8333333333333" customWidth="1"/>
+    <col min="14" max="14" width="24.6666666666667" customWidth="1"/>
+    <col min="15" max="15" width="14.1666666666667" customWidth="1"/>
+    <col min="16" max="16" width="14.3333333333333" customWidth="1"/>
+    <col min="23" max="23" width="15.8333333333333" customWidth="1"/>
+    <col min="32" max="32" width="10.1666666666667" customWidth="1"/>
+    <col min="35" max="35" width="26.3333333333333" customWidth="1"/>
+    <col min="36" max="36" width="12.1666666666667" customWidth="1"/>
+    <col min="37" max="37" width="25.1666666666667" customWidth="1"/>
+    <col min="38" max="38" width="19.3333333333333" customWidth="1"/>
+    <col min="39" max="39" width="22.1666666666667" customWidth="1"/>
     <col min="40" max="40" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="30" customFormat="1" ht="32">
-      <c r="A1" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="33" t="s">
+    <row r="1" s="31" customFormat="1" ht="14.25" spans="1:40">
+      <c r="A1" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="D1" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="E1" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="G1" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="J1" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="K1" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="L1" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="M1" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="O1" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="P1" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="Q1" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="R1" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="S1" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="T1" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="X1" s="32" t="s">
+      <c r="U1" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="Y1" s="32" t="s">
+      <c r="V1" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="W1" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="AA1" s="32" t="s">
+      <c r="X1" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="Y1" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="Z1" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="AD1" s="32" t="s">
+      <c r="AA1" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="AE1" s="32" t="s">
+      <c r="AB1" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="AF1" s="32" t="s">
+      <c r="AC1" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="AG1" s="32" t="s">
+      <c r="AD1" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="AH1" s="32" t="s">
+      <c r="AE1" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="AI1" s="32" t="s">
+      <c r="AF1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AJ1" s="32" t="s">
+      <c r="AG1" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="AK1" s="32" t="s">
+      <c r="AH1" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="AL1" s="32" t="s">
+      <c r="AI1" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="AM1" s="32" t="s">
+      <c r="AJ1" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="AN1" s="32" t="s">
+      <c r="AK1" s="33" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" spans="1:40">
+      <c r="AL1" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM1" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN1" s="33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2134,11 +2729,11 @@
       <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="35">
         <v>44196</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="K2">
         <v>25.3697889</v>
@@ -2155,7 +2750,7 @@
       <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="34">
+      <c r="P2" s="35">
         <v>43977</v>
       </c>
       <c r="Q2" t="s">
@@ -2192,7 +2787,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:36">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2211,17 +2806,17 @@
       <c r="F3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="43" t="s">
-        <v>168</v>
+      <c r="G3" s="36" t="s">
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="34">
+        <v>61</v>
+      </c>
+      <c r="I3" s="35">
         <v>44196</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K3">
         <v>25.3697889</v>
@@ -2238,226 +2833,227 @@
       <c r="O3" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="34">
+      <c r="P3" s="35">
         <v>43977</v>
       </c>
       <c r="Q3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W3">
         <v>10</v>
       </c>
       <c r="X3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH3" t="s">
         <v>57</v>
       </c>
       <c r="AJ3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AS3"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="18.6666666666667" style="32" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1"/>
-    <col min="12" max="12" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="19.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="11.1666666666667" customWidth="1"/>
+    <col min="11" max="11" width="23.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="28.1666666666667" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" customWidth="1"/>
-    <col min="15" max="16" width="19.33203125" customWidth="1"/>
-    <col min="17" max="17" width="21.1640625" customWidth="1"/>
-    <col min="18" max="18" width="25.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.3333333333333" customWidth="1"/>
+    <col min="15" max="16" width="19.3333333333333" customWidth="1"/>
+    <col min="17" max="17" width="21.1666666666667" customWidth="1"/>
+    <col min="18" max="18" width="25.3333333333333" customWidth="1"/>
     <col min="19" max="19" width="28" customWidth="1"/>
     <col min="20" max="20" width="16" customWidth="1"/>
-    <col min="21" max="21" width="10.33203125"/>
-    <col min="28" max="28" width="16.83203125" customWidth="1"/>
-    <col min="37" max="37" width="15.33203125" customWidth="1"/>
-    <col min="40" max="40" width="24.33203125" customWidth="1"/>
-    <col min="41" max="41" width="12.1640625" customWidth="1"/>
-    <col min="42" max="42" width="32.83203125" customWidth="1"/>
+    <col min="21" max="21" width="10.3333333333333"/>
+    <col min="28" max="28" width="16.8333333333333" customWidth="1"/>
+    <col min="37" max="37" width="15.3333333333333" customWidth="1"/>
+    <col min="40" max="40" width="24.3333333333333" customWidth="1"/>
+    <col min="41" max="41" width="12.1666666666667" customWidth="1"/>
+    <col min="42" max="42" width="32.8333333333333" customWidth="1"/>
     <col min="43" max="43" width="23.5" customWidth="1"/>
-    <col min="44" max="44" width="25.1640625" customWidth="1"/>
-    <col min="45" max="45" width="19.1640625" customWidth="1"/>
+    <col min="44" max="44" width="25.1666666666667" customWidth="1"/>
+    <col min="45" max="45" width="19.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="30" customFormat="1" ht="16">
-      <c r="A1" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="33" t="s">
+    <row r="1" s="31" customFormat="1" spans="1:45">
+      <c r="A1" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="D1" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB1" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE1" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF1" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG1" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH1" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI1" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ1" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK1" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL1" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM1" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN1" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO1" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP1" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ1" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="AR1" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="AS1" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="S1" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="V1" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="X1" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y1" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z1" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA1" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB1" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC1" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD1" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE1" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF1" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG1" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH1" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI1" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ1" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK1" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL1" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM1" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN1" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO1" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="AP1" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ1" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR1" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="AS1" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" ht="14">
+    </row>
+    <row r="2" ht="13.5" spans="1:41">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2477,22 +3073,22 @@
         <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="34">
+      <c r="N2" s="35">
         <v>44196</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="P2">
         <v>25.3697889</v>
@@ -2509,7 +3105,7 @@
       <c r="T2" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="34">
+      <c r="U2" s="35">
         <v>43977</v>
       </c>
       <c r="V2" t="s">
@@ -2546,7 +3142,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="14">
+    <row r="3" ht="13.5" spans="1:41">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2566,31 +3162,31 @@
         <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>167</v>
+      <c r="L3" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3" s="34">
+        <v>61</v>
+      </c>
+      <c r="N3" s="35">
         <v>44196</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P3">
         <v>25.3697889</v>
@@ -2607,93 +3203,94 @@
       <c r="T3" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="34">
+      <c r="U3" s="35">
         <v>43977</v>
       </c>
       <c r="V3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB3">
         <v>10</v>
       </c>
       <c r="AC3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AM3" t="s">
         <v>57</v>
       </c>
       <c r="AO3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AT59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.8333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="37" style="3" customWidth="1"/>
     <col min="3" max="3" width="37" style="4" customWidth="1"/>
     <col min="4" max="4" width="61" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.33333333333333" customWidth="1"/>
+    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="5.83333333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.1666666666667" customWidth="1"/>
+    <col min="9" max="9" width="20.1666666666667" customWidth="1"/>
+    <col min="10" max="10" width="12.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="20.6666666666667" customWidth="1"/>
     <col min="12" max="12" width="25.5" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.3333333333333" customWidth="1"/>
     <col min="14" max="14" width="14.5" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
-    <col min="22" max="22" width="16.6640625" customWidth="1"/>
-    <col min="31" max="31" width="11.83203125" customWidth="1"/>
-    <col min="34" max="34" width="25.1640625" customWidth="1"/>
-    <col min="35" max="35" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.3333333333333" customWidth="1"/>
+    <col min="22" max="22" width="16.6666666666667" customWidth="1"/>
+    <col min="31" max="31" width="11.8333333333333" customWidth="1"/>
+    <col min="34" max="34" width="25.1666666666667" customWidth="1"/>
+    <col min="35" max="35" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="1" customFormat="1" ht="18">
+    <row r="1" s="1" customFormat="1" ht="19.5" spans="1:46">
       <c r="A1" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -2713,43 +3310,43 @@
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-    </row>
-    <row r="2" spans="1:46" s="1" customFormat="1" ht="36">
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="39" spans="1:46">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -2769,32 +3366,32 @@
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-    </row>
-    <row r="3" spans="1:46" s="1" customFormat="1">
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="30"/>
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="20.25" spans="1:46">
       <c r="A3" s="2"/>
       <c r="B3" s="7"/>
       <c r="C3" s="12"/>
@@ -2817,618 +3414,578 @@
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="29"/>
-      <c r="AS3" s="29"/>
-      <c r="AT3" s="29"/>
-    </row>
-    <row r="4" spans="1:46" ht="36">
-      <c r="A4" s="40">
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="30"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="30"/>
+      <c r="AT3" s="30"/>
+    </row>
+    <row r="4" ht="38.25" spans="1:4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" ht="54">
-      <c r="A5" s="40"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" ht="57" spans="2:4">
       <c r="B5" s="15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" ht="19">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" ht="20.25" spans="2:4">
       <c r="B6" s="16"/>
       <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="1:46" ht="36">
+    <row r="7" ht="39" spans="1:4">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" ht="19">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" ht="20.25" spans="2:4">
       <c r="B8" s="18"/>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="1:46" ht="20">
+    <row r="9" ht="20.25" spans="1:4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" ht="19">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" ht="20.25" spans="2:4">
       <c r="B10" s="18"/>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="1:46" ht="20">
-      <c r="A11" s="40">
+    <row r="11" ht="20.25" spans="1:4">
+      <c r="A11" s="2">
         <v>4</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46" ht="20">
-      <c r="A12" s="40"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" ht="19.5" spans="2:4">
       <c r="B12" s="20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:46" ht="20">
-      <c r="A13" s="40"/>
+        <v>141</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
       <c r="B13" s="20" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="41"/>
-    </row>
-    <row r="14" spans="1:46" ht="20">
-      <c r="A14" s="40"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" s="21" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="41"/>
-    </row>
-    <row r="15" spans="1:46" ht="20">
-      <c r="A15" s="40"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
       <c r="B15" s="21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="41"/>
-    </row>
-    <row r="16" spans="1:46" ht="20">
-      <c r="A16" s="40"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
       <c r="B16" s="21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="41"/>
-    </row>
-    <row r="17" spans="1:4" ht="20">
-      <c r="A17" s="40"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" ht="19.5" spans="2:3">
       <c r="B17" s="20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="41"/>
-    </row>
-    <row r="18" spans="1:4" ht="20">
-      <c r="A18" s="40"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" ht="20.25" spans="2:4">
       <c r="B18" s="22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="19">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" ht="20.25" spans="2:4">
       <c r="B19" s="23"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" ht="20">
-      <c r="A20" s="40">
+    <row r="20" ht="19.5" spans="1:4">
+      <c r="A20" s="2">
         <v>5</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20">
-      <c r="A21" s="40"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" ht="19.5" spans="2:4">
       <c r="B21" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="19">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" ht="20.25" spans="2:4">
       <c r="B22" s="26"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:4" ht="20">
-      <c r="A23" s="40">
+    <row r="23" ht="19.5" spans="1:4">
+      <c r="A23" s="2">
         <v>6</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="42" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="20">
-      <c r="A24" s="40"/>
+      <c r="D23" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24" s="20" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="42"/>
-    </row>
-    <row r="25" spans="1:4" ht="20">
-      <c r="A25" s="40"/>
+        <v>149</v>
+      </c>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25" s="21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="42"/>
-    </row>
-    <row r="26" spans="1:4" ht="20">
-      <c r="A26" s="40"/>
+        <v>150</v>
+      </c>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="2:4">
       <c r="B26" s="21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="42"/>
-    </row>
-    <row r="27" spans="1:4" ht="20">
-      <c r="A27" s="40"/>
+        <v>151</v>
+      </c>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="2:4">
       <c r="B27" s="21" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="20">
-      <c r="A28" s="40"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" ht="19.5" spans="2:4">
       <c r="B28" s="15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="19">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" ht="20.25" spans="2:4">
       <c r="B29" s="27"/>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:4" ht="20">
-      <c r="A30" s="40">
+    <row r="30" ht="19.5" spans="1:4">
+      <c r="A30" s="2">
         <v>7</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="54">
-      <c r="A31" s="40"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" ht="56.25" spans="2:4">
       <c r="B31" s="21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="20">
-      <c r="A32" s="40"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
       <c r="B32" s="21" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="20">
-      <c r="A33" s="40"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
       <c r="B33" s="21" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="20">
-      <c r="A34" s="40"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
       <c r="B34" s="21" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="20">
-      <c r="A35" s="40"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
       <c r="B35" s="21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="20">
-      <c r="A36" s="40"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
       <c r="B36" s="21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="20">
-      <c r="A37" s="40"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
       <c r="B37" s="21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="20">
-      <c r="A38" s="40"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
       <c r="B38" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="20">
-      <c r="A39" s="40"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
       <c r="B39" s="21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="20">
-      <c r="A40" s="40"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
       <c r="B40" s="21" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="20">
-      <c r="A41" s="40"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
       <c r="B41" s="21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="20">
-      <c r="A42" s="40"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
       <c r="B42" s="21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="20">
-      <c r="A43" s="40"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
       <c r="B43" s="21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="20">
-      <c r="A44" s="40"/>
-      <c r="B44" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="20">
-      <c r="A45" s="40"/>
+    <row r="45" spans="2:4">
       <c r="B45" s="21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="20">
-      <c r="A46" s="40"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
       <c r="B46" s="21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="20">
-      <c r="A47" s="40"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" ht="19.5" spans="2:4">
       <c r="B47" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="19">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" ht="20.25" spans="2:4">
       <c r="B48" s="16"/>
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="1:4" ht="20">
+    <row r="49" ht="20.25" spans="1:4">
       <c r="A49" s="2">
         <v>8</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="19">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" ht="20.25" spans="2:4">
       <c r="B50" s="16"/>
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="1:4" ht="20">
-      <c r="A51" s="40">
+    <row r="51" ht="19.5" spans="1:4">
+      <c r="A51" s="2">
         <v>9</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="20">
-      <c r="A52" s="40"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
       <c r="B52" s="20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="20">
-      <c r="A53" s="40"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
       <c r="B53" s="20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="20">
-      <c r="A54" s="40"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" ht="19.5" spans="2:4">
       <c r="B54" s="15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="19">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" ht="20.25" spans="2:4">
       <c r="B55" s="16"/>
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="1:4" ht="54">
-      <c r="A56" s="40">
+    <row r="56" ht="57" spans="1:4">
+      <c r="A56" s="2">
         <v>10</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="20">
-      <c r="A57" s="40"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" ht="19.5" spans="2:4">
       <c r="B57" s="28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
+      <c r="A59" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3443,8 +4000,8 @@
     <mergeCell ref="D12:D17"/>
     <mergeCell ref="D23:D26"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>